--- a/Lab9/TestOutput.xlsx
+++ b/Lab9/TestOutput.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>

--- a/Lab9/TestOutput.xlsx
+++ b/Lab9/TestOutput.xlsx
@@ -68,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
